--- a/test1/Mydata.xlsx
+++ b/test1/Mydata.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11100" windowHeight="5160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -403,7 +404,7 @@
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
